--- a/Nouveautés/Nouveautes_2026-02-18.xlsx
+++ b/Nouveautés/Nouveautes_2026-02-18.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
   <si>
     <t xml:space="preserve">Type_Changement</t>
   </si>
@@ -35,19 +35,1708 @@
     <t xml:space="preserve">Nouvel objet</t>
   </si>
   <si>
+    <t xml:space="preserve">19.4383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de gestion Conseil des États</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Élu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erledigt / Liquidé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20194383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20194387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de gestion Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20194390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgherr Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20194625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommaruga Carlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20200474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20200506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bregy Philipp Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20201047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pult Jon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munz Martina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de l'économie et des redevances Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Courten Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gugger Niklaus-Samuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pointet François</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadri Lorenzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badran Jacqueline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Élu &amp; Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widmer Céline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suter Gabriela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20203881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landolt Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nantermod Philippe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baumann Kilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulliard-Marbach Christine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weichelt Manuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funiciello Tamara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feller Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portmann Hans-Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rösti Albert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertschy Kathrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lohr Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutz Gregor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humbel Ruth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20204721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20205050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egger Kurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20205350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molina Fabian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20205608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20205648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dandrès Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20210526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark Jakob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roth Franziska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rytz Regula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de la sécurité sociale et de la santé publique Conseil des États</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bericht in Erfüllung des Vorstosses liegt vor / Rapport en réponse de l'intervention est disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüne Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romano Marco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfister Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marti Min Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20213939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michaud Gigon Sophie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolet Jacques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneeberger Daniela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berichterstattung zum Umsetzungsstand des Vorstosses liegt vor / Rapport sur l'état d'avancement est disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlatter Marionna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">von Siebenthal Erich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fridez Pierre-Alain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission de la sécurité sociale et de la santé publique Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlmann Rielle Laurence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walder Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mazzone Lisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20214655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourgeois Jacques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20217130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20217397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20217398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20217768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20217770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grossen Jürg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20218022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keller Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20218241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20220498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Quattro Jacqueline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenzikofer Florence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schneider Meret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guggisberg Lars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Kommission des Ständerats / En commission du Conseil des Etats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraktion der Schweizerischen Volkspartei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regazzi Fabio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20223994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masshardt Nadine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahaim Raphaël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überwiesen an den Bundesrat / Transmis au Conseil fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20224481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20227022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasquier-Eichenberger Isabelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20227360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schilliger Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20227445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grin Jean-Pierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20227575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20227704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20227902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wettstein Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20227929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amoos Emmanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wermuth Cédric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunner Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Töngi Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aebischer Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trede Aline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gysi Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farinelli Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salzmann Werner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reimann Lukas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klopfenstein Broggini Delphine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20233914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeschi Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission des institutions politiques Conseil des États</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grüter Franz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haab Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clivaz Christophe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20234494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20237638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knutti Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schläfli Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gredig Corina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stellungnahme zum Vorstoss liegt vor / L’avis relatif à l’intervention est disponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission des transports et des télécommunications Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engler Stefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egger Mike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beratung in Kommission des Ständerates abgeschlossen / Fin des discussions en commission du Conseil des Etats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candan Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pahud Yvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matter Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopfi Mathias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20243948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glättli Balthasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyss Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prelicz-Huber Katharina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechsteiner Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wicki Hans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20244419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theiler Heinz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20247774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaufmann Pius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20248043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyssmann Rémy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beratung in Kommission des Nationalrates abgeschlossen / Fin des discussions en commission du Conseil national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250450</t>
+  </si>
+  <si>
     <t xml:space="preserve">25.479</t>
   </si>
   <si>
     <t xml:space="preserve">Golay Roger</t>
   </si>
   <si>
-    <t xml:space="preserve">Élu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zugewiesen an die behandelnde Kommission / Attribué à la commission compétente</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20250479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graf Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20251011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vontobel Erich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friedl Claudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z'graggen Heidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blunschy Dominik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmezer Ueli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zybach Ursula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storni Bruno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silberschmidt Andri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mühlemann Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffat Michaël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hess Lorenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruch Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicherheitspolitische Kommission Nationalrat-Nationalrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broulis Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDP-Liberale Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20253984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grünliberale Fraktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zryd Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dittli Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gapany Johanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schmid Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alijaj Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuosto Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobler Marcel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michel Matthias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingereicht / Déposé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addor Jean-Luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20254785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heimgartner Stefanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuberbühler David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Ventura Linda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20257890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolly Nicolas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.parlament.ch/fr/ratsbetrieb/suche-curia-vista/geschaeft?AffairId=20258273</t>
   </si>
 </sst>
 </file>
@@ -95,8 +1784,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F214" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:F214"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Type_Changement"/>
     <tableColumn id="2" name="Numéro"/>
@@ -434,6 +2123,4246 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" t="s">
+        <v>207</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>226</v>
+      </c>
+      <c r="F80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>245</v>
+      </c>
+      <c r="F87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>265</v>
+      </c>
+      <c r="C96" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" t="s">
+        <v>176</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>276</v>
+      </c>
+      <c r="D100" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>278</v>
+      </c>
+      <c r="C101" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>260</v>
+      </c>
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" t="s">
+        <v>52</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" t="s">
+        <v>52</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>290</v>
+      </c>
+      <c r="C106" t="s">
+        <v>291</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>296</v>
+      </c>
+      <c r="C108" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>300</v>
+      </c>
+      <c r="C110" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" t="s">
+        <v>52</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>303</v>
+      </c>
+      <c r="C111" t="s">
+        <v>304</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" t="s">
+        <v>307</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" t="s">
+        <v>245</v>
+      </c>
+      <c r="F112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>309</v>
+      </c>
+      <c r="C113" t="s">
+        <v>310</v>
+      </c>
+      <c r="D113" t="s">
+        <v>52</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" t="s">
+        <v>273</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" t="s">
+        <v>315</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>317</v>
+      </c>
+      <c r="C116" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" t="s">
+        <v>321</v>
+      </c>
+      <c r="D117" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" t="s">
+        <v>324</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>326</v>
+      </c>
+      <c r="C119" t="s">
+        <v>327</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>329</v>
+      </c>
+      <c r="C120" t="s">
+        <v>330</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>332</v>
+      </c>
+      <c r="C121" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>334</v>
+      </c>
+      <c r="C122" t="s">
+        <v>335</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>337</v>
+      </c>
+      <c r="C123" t="s">
+        <v>318</v>
+      </c>
+      <c r="D123" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" t="s">
+        <v>340</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>342</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>344</v>
+      </c>
+      <c r="C126" t="s">
+        <v>345</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" t="s">
+        <v>348</v>
+      </c>
+      <c r="D127" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" t="s">
+        <v>349</v>
+      </c>
+      <c r="F127" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>351</v>
+      </c>
+      <c r="C128" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>245</v>
+      </c>
+      <c r="F128" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>356</v>
+      </c>
+      <c r="C130" t="s">
+        <v>95</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" t="s">
+        <v>359</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>361</v>
+      </c>
+      <c r="C132" t="s">
+        <v>362</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>363</v>
+      </c>
+      <c r="F132" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>365</v>
+      </c>
+      <c r="C133" t="s">
+        <v>366</v>
+      </c>
+      <c r="D133" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" t="s">
+        <v>349</v>
+      </c>
+      <c r="F133" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>368</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>349</v>
+      </c>
+      <c r="F134" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" t="s">
+        <v>92</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>372</v>
+      </c>
+      <c r="C136" t="s">
+        <v>373</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>349</v>
+      </c>
+      <c r="F136" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>375</v>
+      </c>
+      <c r="C137" t="s">
+        <v>376</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" t="s">
+        <v>349</v>
+      </c>
+      <c r="F137" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>378</v>
+      </c>
+      <c r="C138" t="s">
+        <v>379</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>381</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>349</v>
+      </c>
+      <c r="F139" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>383</v>
+      </c>
+      <c r="C140" t="s">
+        <v>384</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>349</v>
+      </c>
+      <c r="F140" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>386</v>
+      </c>
+      <c r="C141" t="s">
+        <v>301</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>349</v>
+      </c>
+      <c r="F141" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>388</v>
+      </c>
+      <c r="C142" t="s">
+        <v>73</v>
+      </c>
+      <c r="D142" t="s">
+        <v>52</v>
+      </c>
+      <c r="E142" t="s">
+        <v>349</v>
+      </c>
+      <c r="F142" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>390</v>
+      </c>
+      <c r="C143" t="s">
+        <v>73</v>
+      </c>
+      <c r="D143" t="s">
+        <v>52</v>
+      </c>
+      <c r="E143" t="s">
+        <v>349</v>
+      </c>
+      <c r="F143" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>392</v>
+      </c>
+      <c r="C144" t="s">
+        <v>219</v>
+      </c>
+      <c r="D144" t="s">
+        <v>52</v>
+      </c>
+      <c r="E144" t="s">
+        <v>349</v>
+      </c>
+      <c r="F144" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>394</v>
+      </c>
+      <c r="C145" t="s">
+        <v>395</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>349</v>
+      </c>
+      <c r="F145" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>397</v>
+      </c>
+      <c r="C146" t="s">
+        <v>398</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>349</v>
+      </c>
+      <c r="F146" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>400</v>
+      </c>
+      <c r="C147" t="s">
+        <v>401</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>403</v>
+      </c>
+      <c r="C148" t="s">
+        <v>404</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>406</v>
+      </c>
+      <c r="C149" t="s">
+        <v>79</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>408</v>
+      </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>410</v>
+      </c>
+      <c r="C151" t="s">
+        <v>301</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" t="s">
+        <v>413</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>415</v>
+      </c>
+      <c r="C153" t="s">
+        <v>79</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>417</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>419</v>
+      </c>
+      <c r="C155" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" t="s">
+        <v>52</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>421</v>
+      </c>
+      <c r="C156" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" t="s">
+        <v>52</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>423</v>
+      </c>
+      <c r="C157" t="s">
+        <v>424</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>426</v>
+      </c>
+      <c r="C158" t="s">
+        <v>427</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>428</v>
+      </c>
+      <c r="F158" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>430</v>
+      </c>
+      <c r="C159" t="s">
+        <v>431</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>432</v>
+      </c>
+      <c r="F159" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>434</v>
+      </c>
+      <c r="C160" t="s">
+        <v>435</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>437</v>
+      </c>
+      <c r="C161" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>439</v>
+      </c>
+      <c r="C162" t="s">
+        <v>440</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
+        <v>349</v>
+      </c>
+      <c r="F162" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>442</v>
+      </c>
+      <c r="C163" t="s">
+        <v>431</v>
+      </c>
+      <c r="D163" t="s">
+        <v>19</v>
+      </c>
+      <c r="E163" t="s">
+        <v>349</v>
+      </c>
+      <c r="F163" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>444</v>
+      </c>
+      <c r="C164" t="s">
+        <v>445</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>349</v>
+      </c>
+      <c r="F164" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>447</v>
+      </c>
+      <c r="C165" t="s">
+        <v>448</v>
+      </c>
+      <c r="D165" t="s">
+        <v>19</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>450</v>
+      </c>
+      <c r="C166" t="s">
+        <v>451</v>
+      </c>
+      <c r="D166" t="s">
+        <v>52</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>453</v>
+      </c>
+      <c r="C167" t="s">
+        <v>232</v>
+      </c>
+      <c r="D167" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>455</v>
+      </c>
+      <c r="C168" t="s">
+        <v>451</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>457</v>
+      </c>
+      <c r="C169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" t="s">
+        <v>349</v>
+      </c>
+      <c r="F169" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>459</v>
+      </c>
+      <c r="C170" t="s">
+        <v>460</v>
+      </c>
+      <c r="D170" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" t="s">
+        <v>349</v>
+      </c>
+      <c r="F170" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>462</v>
+      </c>
+      <c r="C171" t="s">
+        <v>463</v>
+      </c>
+      <c r="D171" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" t="s">
+        <v>349</v>
+      </c>
+      <c r="F171" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>465</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" t="s">
+        <v>349</v>
+      </c>
+      <c r="F172" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>467</v>
+      </c>
+      <c r="C173" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" t="s">
+        <v>349</v>
+      </c>
+      <c r="F173" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>469</v>
+      </c>
+      <c r="C174" t="s">
+        <v>470</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
+        <v>349</v>
+      </c>
+      <c r="F174" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>472</v>
+      </c>
+      <c r="C175" t="s">
+        <v>404</v>
+      </c>
+      <c r="D175" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>474</v>
+      </c>
+      <c r="C176" t="s">
+        <v>359</v>
+      </c>
+      <c r="D176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" t="s">
+        <v>428</v>
+      </c>
+      <c r="F176" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>476</v>
+      </c>
+      <c r="C177" t="s">
+        <v>318</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" t="s">
+        <v>349</v>
+      </c>
+      <c r="F177" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>478</v>
+      </c>
+      <c r="C178" t="s">
+        <v>479</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>226</v>
+      </c>
+      <c r="F178" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>481</v>
+      </c>
+      <c r="C179" t="s">
+        <v>335</v>
+      </c>
+      <c r="D179" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" t="s">
+        <v>349</v>
+      </c>
+      <c r="F179" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" t="s">
+        <v>484</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
+        <v>226</v>
+      </c>
+      <c r="F180" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>486</v>
+      </c>
+      <c r="C181" t="s">
+        <v>487</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>349</v>
+      </c>
+      <c r="F181" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>489</v>
+      </c>
+      <c r="C182" t="s">
+        <v>490</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
+        <v>349</v>
+      </c>
+      <c r="F182" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>492</v>
+      </c>
+      <c r="C183" t="s">
+        <v>493</v>
+      </c>
+      <c r="D183" t="s">
+        <v>52</v>
+      </c>
+      <c r="E183" t="s">
+        <v>349</v>
+      </c>
+      <c r="F183" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>495</v>
+      </c>
+      <c r="C184" t="s">
+        <v>496</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" t="s">
+        <v>245</v>
+      </c>
+      <c r="F184" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>498</v>
+      </c>
+      <c r="C185" t="s">
+        <v>499</v>
+      </c>
+      <c r="D185" t="s">
+        <v>52</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>501</v>
+      </c>
+      <c r="C186" t="s">
+        <v>502</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" t="s">
+        <v>226</v>
+      </c>
+      <c r="F186" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>504</v>
+      </c>
+      <c r="C187" t="s">
+        <v>505</v>
+      </c>
+      <c r="D187" t="s">
+        <v>19</v>
+      </c>
+      <c r="E187" t="s">
+        <v>349</v>
+      </c>
+      <c r="F187" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>507</v>
+      </c>
+      <c r="C188" t="s">
+        <v>508</v>
+      </c>
+      <c r="D188" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" t="s">
+        <v>349</v>
+      </c>
+      <c r="F188" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>510</v>
+      </c>
+      <c r="C189" t="s">
+        <v>511</v>
+      </c>
+      <c r="D189" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>513</v>
+      </c>
+      <c r="C190" t="s">
+        <v>514</v>
+      </c>
+      <c r="D190" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>516</v>
+      </c>
+      <c r="C191" t="s">
+        <v>517</v>
+      </c>
+      <c r="D191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" t="s">
+        <v>432</v>
+      </c>
+      <c r="F191" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>519</v>
+      </c>
+      <c r="C192" t="s">
+        <v>168</v>
+      </c>
+      <c r="D192" t="s">
+        <v>52</v>
+      </c>
+      <c r="E192" t="s">
+        <v>349</v>
+      </c>
+      <c r="F192" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>521</v>
+      </c>
+      <c r="C193" t="s">
+        <v>522</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>524</v>
+      </c>
+      <c r="C194" t="s">
+        <v>525</v>
+      </c>
+      <c r="D194" t="s">
+        <v>52</v>
+      </c>
+      <c r="E194" t="s">
+        <v>349</v>
+      </c>
+      <c r="F194" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>527</v>
+      </c>
+      <c r="C195" t="s">
+        <v>528</v>
+      </c>
+      <c r="D195" t="s">
+        <v>52</v>
+      </c>
+      <c r="E195" t="s">
+        <v>349</v>
+      </c>
+      <c r="F195" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>530</v>
+      </c>
+      <c r="C196" t="s">
+        <v>273</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>349</v>
+      </c>
+      <c r="F196" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>532</v>
+      </c>
+      <c r="C197" t="s">
+        <v>533</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>534</v>
+      </c>
+      <c r="F197" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>536</v>
+      </c>
+      <c r="C198" t="s">
+        <v>204</v>
+      </c>
+      <c r="D198" t="s">
+        <v>52</v>
+      </c>
+      <c r="E198" t="s">
+        <v>349</v>
+      </c>
+      <c r="F198" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>538</v>
+      </c>
+      <c r="C199" t="s">
+        <v>539</v>
+      </c>
+      <c r="D199" t="s">
+        <v>52</v>
+      </c>
+      <c r="E199" t="s">
+        <v>349</v>
+      </c>
+      <c r="F199" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>541</v>
+      </c>
+      <c r="C200" t="s">
+        <v>315</v>
+      </c>
+      <c r="D200" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>543</v>
+      </c>
+      <c r="C201" t="s">
+        <v>508</v>
+      </c>
+      <c r="D201" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>545</v>
+      </c>
+      <c r="C202" t="s">
+        <v>79</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>547</v>
+      </c>
+      <c r="C203" t="s">
+        <v>176</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>549</v>
+      </c>
+      <c r="C204" t="s">
+        <v>460</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>551</v>
+      </c>
+      <c r="C205" t="s">
+        <v>552</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>554</v>
+      </c>
+      <c r="C206" t="s">
+        <v>555</v>
+      </c>
+      <c r="D206" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>557</v>
+      </c>
+      <c r="C207" t="s">
+        <v>73</v>
+      </c>
+      <c r="D207" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>559</v>
+      </c>
+      <c r="C208" t="s">
+        <v>539</v>
+      </c>
+      <c r="D208" t="s">
+        <v>19</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>561</v>
+      </c>
+      <c r="C209" t="s">
+        <v>562</v>
+      </c>
+      <c r="D209" t="s">
+        <v>19</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>564</v>
+      </c>
+      <c r="C210" t="s">
+        <v>42</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>566</v>
+      </c>
+      <c r="C211" t="s">
+        <v>73</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>568</v>
+      </c>
+      <c r="C212" t="s">
+        <v>335</v>
+      </c>
+      <c r="D212" t="s">
+        <v>52</v>
+      </c>
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>570</v>
+      </c>
+      <c r="C213" t="s">
+        <v>571</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>573</v>
+      </c>
+      <c r="C214" t="s">
+        <v>301</v>
+      </c>
+      <c r="D214" t="s">
+        <v>52</v>
+      </c>
+      <c r="E214" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
